--- a/Doc/301releasespecifics.xlsx
+++ b/Doc/301releasespecifics.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyusuf/Desktop/TaskMagic/TaskMagic/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24040" windowHeight="12560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>CMPUT301W18T24  Release Planning</t>
   </si>
@@ -32,21 +38,6 @@
     <t>Project #</t>
   </si>
   <si>
-    <t>Use Cases</t>
-  </si>
-  <si>
-    <t>1. Add Tasks</t>
-  </si>
-  <si>
-    <t>2. View Tasklist</t>
-  </si>
-  <si>
-    <t>3. Edit Task</t>
-  </si>
-  <si>
-    <t>4. Remove Task</t>
-  </si>
-  <si>
     <t>5. View Detail</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>11. Notify</t>
   </si>
   <si>
-    <t>12. Draft task</t>
-  </si>
-  <si>
     <t>13. Set photograph</t>
   </si>
   <si>
@@ -144,6 +132,114 @@
   </si>
   <si>
     <t>10. Bid on Task</t>
+  </si>
+  <si>
+    <t>1. Layout Design</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2. Add Tasks</t>
+  </si>
+  <si>
+    <t>3. View Tasklist</t>
+  </si>
+  <si>
+    <t>4. Edit Task</t>
+  </si>
+  <si>
+    <t>5. Remove Task</t>
+  </si>
+  <si>
+    <t>Hamdi</t>
+  </si>
+  <si>
+    <t>Shi Yan</t>
+  </si>
+  <si>
+    <t>Yipu Chen</t>
+  </si>
+  <si>
+    <t>Fanje Shen</t>
+  </si>
+  <si>
+    <t>Harrold</t>
+  </si>
+  <si>
+    <t>Yuandi Wu</t>
+  </si>
+  <si>
+    <t>Elastic Search</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Fanje Shen/Yuandi Wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yipu chen </t>
+  </si>
+  <si>
+    <t>Hamdi/Shi Yan</t>
+  </si>
+  <si>
+    <t>log in</t>
+  </si>
+  <si>
+    <t>Tasks to do</t>
+  </si>
+  <si>
+    <t>mar3-10</t>
+  </si>
+  <si>
+    <t>mar10-17</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Yuandi</t>
+  </si>
+  <si>
+    <t>Fanji Shen</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>Hamdi/ Yuandi/Fanje Shen/Harrold/Yipu/Shi Yan</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>Hamdi/Yipu Chen</t>
+  </si>
+  <si>
+    <t>Harrold/Fanji</t>
+  </si>
+  <si>
+    <t>march 20-30</t>
+  </si>
+  <si>
+    <t>April 1-9</t>
+  </si>
+  <si>
+    <t>12. Draft task (offline functionality)</t>
+  </si>
+  <si>
+    <t>Yuandi/harrold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Developers Working on</t>
   </si>
 </sst>
 </file>
@@ -187,9 +283,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,228 +567,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="44.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
